--- a/Fase 2/Evidencias Grupales/PLANILLA DE EVALUACIÓN AVANCE FASE 2.xlsx
+++ b/Fase 2/Evidencias Grupales/PLANILLA DE EVALUACIÓN AVANCE FASE 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ler19\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4FDE80-C64E-458C-92AD-FBDFF0C50848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABBE4912-F960-44F9-8855-68EC1B70AAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Generales" sheetId="1" r:id="rId1"/>
@@ -151,12 +151,6 @@
     <t>HU-016</t>
   </si>
   <si>
-    <t>Video en Github</t>
-  </si>
-  <si>
-    <t>Screen en Github</t>
-  </si>
-  <si>
     <t>Sincronización tiempo real</t>
   </si>
   <si>
@@ -164,6 +158,12 @@
   </si>
   <si>
     <t>Se puede Apreciar en los videos de las funcionalidades</t>
+  </si>
+  <si>
+    <t>Video en Trello</t>
+  </si>
+  <si>
+    <t>Screen en Trello</t>
   </si>
 </sst>
 </file>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -290,10 +290,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,19 +598,19 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D24" sqref="D24:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="7" max="12" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="7" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -641,12 +638,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -660,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -671,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -683,10 +680,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -697,10 +694,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -711,10 +708,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -722,16 +719,16 @@
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -745,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -756,10 +753,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -770,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -784,10 +781,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -798,10 +795,10 @@
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -809,16 +806,16 @@
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -832,7 +829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -843,10 +840,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -855,10 +852,10 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -869,10 +866,10 @@
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -883,10 +880,10 @@
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -897,24 +894,24 @@
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -922,15 +919,15 @@
         <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
     </row>
   </sheetData>
